--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="129">
   <si>
     <t>Drug</t>
   </si>
@@ -334,29 +334,10 @@
     <t>Rest +20%</t>
   </si>
   <si>
-    <t xml:space="preserve">Rest +20%
-Psyfocus (Royalty DLC) +50%
-Pain x20%
-Consciousness +20%
-Moving +50%
-Rest Fall Factor x70% 
-Hunger Rate Factor Offset -50% </t>
-  </si>
-  <si>
     <t>OD Offest - Random range between the two numbers</t>
   </si>
   <si>
     <t>Work to Make - In Ticks (60 per second)</t>
-  </si>
-  <si>
-    <t>Duration is rounded down but by as a floating point number, will actually last longer</t>
-  </si>
-  <si>
-    <t>Rest +80%
-Rest Fall Factor x50%
-Construction Speed +75%
-Construct Success Chance +50%
-General Labor Speed +75%</t>
   </si>
   <si>
     <r>
@@ -633,13 +614,35 @@
   <si>
     <t>Drug Stats - Sleepy's Pharmaceuticals</t>
   </si>
+  <si>
+    <t>Duration is rounded down by as a floating point number, will actually last longer</t>
+  </si>
+  <si>
+    <t>2.0 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rest +40%
+Psyfocus (Royalty DLC) +50%
+Pain x20%
+Consciousness +20%
+Moving +50%
+Rest Fall Factor x70% 
+Hunger Rate Factor Offset -50% </t>
+  </si>
+  <si>
+    <t>Rest +50%
+Rest Fall Factor x50%
+Construction Speed +75%
+Construct Success Chance +50%
+General Labor Speed +75%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -727,7 +730,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -741,90 +744,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="24">
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -870,63 +846,6 @@
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -940,7 +859,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="B3:Q42">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
@@ -948,22 +867,22 @@
     <filterColumn colId="15"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="37"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="36"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="35"/>
-    <tableColumn id="17" name="Joy" dataDxfId="34"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="33"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="32"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="31"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="30"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="29"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="24"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="23"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="21"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="22"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="28"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="27"/>
-    <tableColumn id="16" name="Type" dataDxfId="26"/>
+    <tableColumn id="1" name="Drug" dataDxfId="15"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
+    <tableColumn id="17" name="Joy" dataDxfId="12"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
+    <tableColumn id="16" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,21 +1202,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -1375,8 +1294,8 @@
       <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>11</v>
+      <c r="J4" s="8">
+        <v>1</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -1408,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4">
         <v>0.7</v>
@@ -1458,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1867,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>67</v>
@@ -1908,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1917,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>67</v>
@@ -1973,7 +1892,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="J16" s="8">
         <v>0.2</v>
@@ -2058,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2208,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E21" s="4">
         <v>0.5</v>
@@ -2258,7 +2177,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4">
         <v>0.7</v>
@@ -2308,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E23" s="4">
         <v>0.1</v>
@@ -2358,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E24" s="4">
         <v>0.1</v>
@@ -2408,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E25" s="4">
         <v>0.2</v>
@@ -2458,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -2508,7 +2427,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E27" s="4">
         <v>0.7</v>
@@ -2558,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E28" s="4">
         <v>0.5</v>
@@ -2608,7 +2527,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E29" s="4">
         <v>0.85</v>
@@ -2858,7 +2777,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E34" s="4">
         <v>0.6</v>
@@ -2908,7 +2827,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E35" s="4">
         <v>0.3</v>
@@ -2958,7 +2877,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4">
         <v>0.85</v>
@@ -3008,7 +2927,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -3058,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3108,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -3208,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -3258,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3482,31 +3401,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C42">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E42">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q42">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D42">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -746,6 +746,50 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -802,50 +846,6 @@
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF69D8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFE0A9A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E6A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="23">
   <autoFilter ref="B3:Q42">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
@@ -867,22 +867,22 @@
     <filterColumn colId="15"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="15"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
-    <tableColumn id="17" name="Joy" dataDxfId="12"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
-    <tableColumn id="16" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" name="Drug" dataDxfId="22"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="21"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="20"/>
+    <tableColumn id="17" name="Joy" dataDxfId="19"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="18"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="17"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="16"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="15"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="14"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="13"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="12"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="11"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="10"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="9"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="8"/>
+    <tableColumn id="16" name="Type" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2419,27 +2419,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:17" ht="75">
+    <row r="27" spans="2:17" ht="45">
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F27" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G27" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H27" s="6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>26</v>
@@ -2454,13 +2454,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M27" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N27" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>88</v>
@@ -2469,27 +2469,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="45">
+    <row r="28" spans="2:17" ht="75">
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E28" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F28" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G28" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H28" s="6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>26</v>
@@ -2507,10 +2507,10 @@
         <v>0.06</v>
       </c>
       <c r="N28" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>88</v>
@@ -2554,7 +2554,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N29" s="5">
         <v>1.2500000000000001E-2</v>
@@ -3401,31 +3401,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C42">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E42">
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q42">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D42">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Drugs" sheetId="1" r:id="rId1"/>
+    <sheet name="Core Mod" sheetId="1" r:id="rId1"/>
+    <sheet name="Glitterworld Medicine" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="159">
   <si>
     <t>Drug</t>
   </si>
@@ -316,10 +317,6 @@
   </si>
   <si>
     <t>Injury Healing Factor +60%</t>
-  </si>
-  <si>
-    <t>Injury Healing Factor +60%
-Immunity Gain Speed +40%</t>
   </si>
   <si>
     <t>Immune from Flu &amp; Animal Flu</t>
@@ -635,6 +632,114 @@
 Construction Speed +75%
 Construct Success Chance +50%
 General Labor Speed +75%</t>
+  </si>
+  <si>
+    <t>Drug Stats - Sleepy's Pharmaceuticals - Glitterworld Medicine</t>
+  </si>
+  <si>
+    <t>Injury Healing Factor +100%
+Immunity Gain Speed +40%</t>
+  </si>
+  <si>
+    <t>Psyastasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slumber </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aloeasix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neverhex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermax </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vexatrol </t>
+  </si>
+  <si>
+    <t>Rest Rate Multiplier +40%</t>
+  </si>
+  <si>
+    <t>Pillwire</t>
+  </si>
+  <si>
+    <t>Psychic Sensitivity -200%</t>
+  </si>
+  <si>
+    <t>0.75 Days</t>
+  </si>
+  <si>
+    <t>Pain x40%</t>
+  </si>
+  <si>
+    <t>3.5 Days</t>
+  </si>
+  <si>
+    <t>Vexatrol</t>
+  </si>
+  <si>
+    <t>Hexic</t>
+  </si>
+  <si>
+    <t>Asioasix</t>
+  </si>
+  <si>
+    <t>0.11~0.18</t>
+  </si>
+  <si>
+    <t>Comfy Temperature Min -24
+ Comfy Temperature Max +24</t>
+  </si>
+  <si>
+    <t>5.0 Days</t>
+  </si>
+  <si>
+    <t>Remove One Random Addiction</t>
+  </si>
+  <si>
+    <t>Rapidthink</t>
+  </si>
+  <si>
+    <t>Consciousness +30%</t>
+  </si>
+  <si>
+    <t>0.15~0.23</t>
+  </si>
+  <si>
+    <t>Esphix-A</t>
+  </si>
+  <si>
+    <t>0.18~0.29</t>
+  </si>
+  <si>
+    <t>Basalsalt</t>
+  </si>
+  <si>
+    <t>Chrysalis</t>
+  </si>
+  <si>
+    <t>Forces Creativity Inspiration</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Incoming Damage Factor x85%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain +25%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -694,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -740,11 +845,74 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -846,6 +1014,50 @@
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -859,7 +1071,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="B3:Q42">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
@@ -867,22 +1079,47 @@
     <filterColumn colId="15"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="22"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="21"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="20"/>
-    <tableColumn id="17" name="Joy" dataDxfId="19"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="18"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="17"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="16"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="15"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="14"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="13"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="12"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="11"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="10"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="9"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="8"/>
-    <tableColumn id="16" name="Type" dataDxfId="7"/>
+    <tableColumn id="1" name="Drug" dataDxfId="39"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="38"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="37"/>
+    <tableColumn id="17" name="Joy" dataDxfId="36"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="35"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="34"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="33"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="32"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="31"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="30"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="29"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="28"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="27"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="26"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="25"/>
+    <tableColumn id="16" name="Type" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q42" totalsRowShown="0" dataDxfId="16">
+  <autoFilter ref="B3:Q42"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Drug" dataDxfId="15"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
+    <tableColumn id="17" name="Joy" dataDxfId="12"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
+    <tableColumn id="16" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1175,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1202,21 +1439,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -1327,7 +1564,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>0.7</v>
@@ -1377,7 +1614,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1457,7 +1694,7 @@
         <v>11</v>
       </c>
       <c r="N7" s="5">
-        <v>1E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>10</v>
@@ -1827,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1892,7 +2129,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="8">
         <v>0.2</v>
@@ -1927,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1977,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2027,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2127,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="4">
         <v>0.5</v>
@@ -2177,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4">
         <v>0.7</v>
@@ -2227,7 +2464,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4">
         <v>0.1</v>
@@ -2277,7 +2514,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="4">
         <v>0.1</v>
@@ -2327,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4">
         <v>0.2</v>
@@ -2377,7 +2614,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -2427,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="4">
         <v>0.5</v>
@@ -2477,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E28" s="4">
         <v>0.7</v>
@@ -2527,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29" s="4">
         <v>0.85</v>
@@ -2577,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2627,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2727,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -2777,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="4">
         <v>0.6</v>
@@ -2827,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="4">
         <v>0.3</v>
@@ -2877,7 +3114,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="4">
         <v>0.85</v>
@@ -2927,7 +3164,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -2977,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3027,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -3127,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -3177,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3401,31 +3638,1331 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C42">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E42">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q42">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D42">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+      <formula>"No Other Effects"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:Q52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" s="2" customFormat="1">
+      <c r="B5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="30">
+      <c r="B8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="30">
+      <c r="B13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C4:C42">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E42">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q42">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"Social Drug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+      <formula>"Hard Drug"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"Medical"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D9 D11:D42">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Core Mod" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="159">
   <si>
     <t>Drug</t>
   </si>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3678,8 +3678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3852,8 +3852,8 @@
       <c r="N5" s="5">
         <v>0</v>
       </c>
-      <c r="O5" s="6" t="s">
-        <v>70</v>
+      <c r="O5" s="6">
+        <v>0</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>11</v>
@@ -3990,8 +3990,8 @@
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>70</v>
+      <c r="O8" s="6">
+        <v>0</v>
       </c>
       <c r="P8" s="6" t="s">
         <v>11</v>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Core Mod" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="170">
   <si>
     <t>Drug</t>
   </si>
@@ -683,9 +683,6 @@
     <t>Hexic</t>
   </si>
   <si>
-    <t>Asioasix</t>
-  </si>
-  <si>
     <t>0.11~0.18</t>
   </si>
   <si>
@@ -723,7 +720,40 @@
     <t>Forces Creativity Inspiration</t>
   </si>
   <si>
-    <t>Technical</t>
+    <t>Cancer Rate x1%</t>
+  </si>
+  <si>
+    <t>14.0 Days</t>
+  </si>
+  <si>
+    <t>Fertility x0%</t>
+  </si>
+  <si>
+    <t>Cocolamine</t>
+  </si>
+  <si>
+    <t>Cocolamine (Idealogy)</t>
+  </si>
+  <si>
+    <t>Certainty Loss Factor x300%</t>
+  </si>
+  <si>
+    <t>30.0 Days</t>
+  </si>
+  <si>
+    <t>Eludispec (Biotech)</t>
+  </si>
+  <si>
+    <t>Technica</t>
+  </si>
+  <si>
+    <t>Nanites</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Aloeasix</t>
   </si>
   <si>
     <r>
@@ -738,8 +768,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Pain +25%</t>
+      <t>Pain +30%</t>
     </r>
+  </si>
+  <si>
+    <t>Oncovisis (Biotech)</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3678,17 +3711,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
@@ -3788,8 +3821,12 @@
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="2">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>600</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>125</v>
       </c>
@@ -3834,6 +3871,12 @@
       <c r="F5" s="5">
         <v>0</v>
       </c>
+      <c r="G5" s="2">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2">
+        <v>600</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>125</v>
       </c>
@@ -3878,8 +3921,12 @@
       <c r="F6" s="5">
         <v>0.01</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>400</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>139</v>
       </c>
@@ -3902,7 +3949,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>13</v>
@@ -3924,8 +3971,12 @@
       <c r="F7" s="5">
         <v>0.01</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2">
+        <v>700</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>80</v>
       </c>
@@ -3962,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3970,8 +4021,12 @@
       <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2">
+        <v>500</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>82</v>
       </c>
@@ -4008,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4016,7 +4071,9 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>45</v>
+      </c>
       <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
@@ -4050,13 +4107,13 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -4064,12 +4121,14 @@
       <c r="F10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>70</v>
+      </c>
       <c r="H10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J10" s="8">
         <v>1</v>
@@ -4112,8 +4171,12 @@
       <c r="F11" s="5">
         <v>0.02</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000</v>
+      </c>
       <c r="I11" s="6" t="s">
         <v>141</v>
       </c>
@@ -4133,10 +4196,10 @@
         <v>0.01</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>19</v>
@@ -4144,22 +4207,26 @@
     </row>
     <row r="12" spans="2:17">
       <c r="B12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="2">
+        <v>35</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000</v>
+      </c>
       <c r="I12" s="6" t="s">
         <v>82</v>
       </c>
@@ -4170,7 +4237,7 @@
         <v>0.1</v>
       </c>
       <c r="L12" s="7">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4179,10 +4246,10 @@
         <v>0.02</v>
       </c>
       <c r="O12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>19</v>
@@ -4190,13 +4257,13 @@
     </row>
     <row r="13" spans="2:17" ht="30">
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2">
         <v>-3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4204,8 +4271,12 @@
       <c r="F13" s="5">
         <v>0.02</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2">
+        <v>750</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>80</v>
       </c>
@@ -4225,76 +4296,184 @@
         <v>0.04</v>
       </c>
       <c r="O13" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6">
+        <v>400</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6">
+        <v>750</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G16" s="2">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2">
+        <v>800</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="L16" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -4304,7 +4483,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="2"/>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="167">
   <si>
     <t>Drug</t>
   </si>
@@ -656,9 +656,6 @@
     <t xml:space="preserve">Thermax </t>
   </si>
   <si>
-    <t xml:space="preserve">Vexatrol </t>
-  </si>
-  <si>
     <t>Rest Rate Multiplier +40%</t>
   </si>
   <si>
@@ -675,9 +672,6 @@
   </si>
   <si>
     <t>3.5 Days</t>
-  </si>
-  <si>
-    <t>Vexatrol</t>
   </si>
   <si>
     <t>Hexic</t>
@@ -691,9 +685,6 @@
   </si>
   <si>
     <t>5.0 Days</t>
-  </si>
-  <si>
-    <t>Remove One Random Addiction</t>
   </si>
   <si>
     <t>Rapidthink</t>
@@ -890,6 +881,50 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -945,50 +980,6 @@
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF69D8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFE0A9A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E6A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1134,25 +1125,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q42" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="B3:Q42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q41" totalsRowShown="0" dataDxfId="23">
+  <autoFilter ref="B3:Q41"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="15"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
-    <tableColumn id="17" name="Joy" dataDxfId="12"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
-    <tableColumn id="16" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" name="Drug" dataDxfId="22"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="21"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="20"/>
+    <tableColumn id="17" name="Joy" dataDxfId="19"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="18"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="17"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="16"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="15"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="14"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="13"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="12"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="11"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="10"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="9"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="8"/>
+    <tableColumn id="16" name="Type" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3709,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q52"/>
+  <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3813,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3863,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3913,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -3928,7 +3919,7 @@
         <v>400</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J6" s="8">
         <v>0.75</v>
@@ -3949,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>13</v>
@@ -3999,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>91</v>
@@ -4013,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -4057,40 +4048,40 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>147</v>
+      <c r="D9" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
       </c>
       <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>-0.2</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
@@ -4099,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>13</v>
@@ -4107,66 +4098,66 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>155</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G10" s="2">
-        <v>70</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>67</v>
+        <v>35</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J10" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>11</v>
+        <v>0.05</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
       </c>
       <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2">
-        <v>18</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="E11" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <v>0.02</v>
@@ -4178,13 +4169,13 @@
         <v>1000</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="J11" s="8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K11" s="5">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L11" s="7">
         <v>1.4999999999999999E-2</v>
@@ -4193,27 +4184,27 @@
         <v>0</v>
       </c>
       <c r="N11" s="5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
+    <row r="12" spans="2:17" ht="30">
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>149</v>
+        <v>-3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4222,19 +4213,19 @@
         <v>0.02</v>
       </c>
       <c r="G12" s="2">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J12" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="L12" s="7">
         <v>1.4999999999999999E-2</v>
@@ -4243,77 +4234,77 @@
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="O12" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P12" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="30">
+    <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6">
+        <v>400</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="G13" s="2">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2">
-        <v>750</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
       </c>
       <c r="K13" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="N13" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>152</v>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4322,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H14" s="6">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -4357,49 +4348,49 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>800</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="L15" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>28</v>
-      </c>
-      <c r="H15" s="6">
-        <v>750</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>13</v>
@@ -4407,90 +4398,58 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>25</v>
-      </c>
-      <c r="H16" s="2">
-        <v>800</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="L16" s="7">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>159</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="6" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>10</v>
-      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="8"/>
       <c r="K17" s="5"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
       <c r="G18" s="2"/>
@@ -4526,7 +4485,7 @@
     <row r="20" spans="2:17">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
       <c r="G20" s="2"/>
@@ -4562,7 +4521,7 @@
     <row r="22" spans="2:17">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
       <c r="G22" s="2"/>
@@ -4580,7 +4539,7 @@
     <row r="23" spans="2:17">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="4"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
@@ -4688,7 +4647,7 @@
     <row r="29" spans="2:17">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
       <c r="F29" s="5"/>
       <c r="G29" s="2"/>
@@ -4760,7 +4719,7 @@
     <row r="33" spans="2:17">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="2"/>
@@ -4782,7 +4741,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="6"/>
       <c r="J34" s="8"/>
       <c r="K34" s="5"/>
@@ -4796,7 +4755,7 @@
     <row r="35" spans="2:17">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="14"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
       <c r="G35" s="2"/>
@@ -4832,7 +4791,7 @@
     <row r="37" spans="2:17">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
@@ -4850,7 +4809,7 @@
     <row r="38" spans="2:17">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4"/>
       <c r="F38" s="5"/>
       <c r="G38" s="2"/>
@@ -4860,7 +4819,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
@@ -4878,7 +4837,7 @@
       <c r="K39" s="5"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
-      <c r="N39" s="13"/>
+      <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
@@ -4920,40 +4879,40 @@
       <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
     </row>
     <row r="44" spans="2:17">
       <c r="B44" s="2"/>
@@ -5082,68 +5041,50 @@
       <c r="Q50" s="6"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C42">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="C4:C41">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E42">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+  <conditionalFormatting sqref="E4:E41">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q42">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+  <conditionalFormatting sqref="Q4:Q41">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D9 D11:D42">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+  <conditionalFormatting sqref="D10:D41 D4:D8">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -881,50 +881,6 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF69D8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFE0A9A8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E6A2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -980,6 +936,50 @@
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1125,25 +1125,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q41" totalsRowShown="0" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q41" totalsRowShown="0" dataDxfId="16">
   <autoFilter ref="B3:Q41"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="22"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="21"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="20"/>
-    <tableColumn id="17" name="Joy" dataDxfId="19"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="18"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="17"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="16"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="15"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="14"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="13"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="12"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="11"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="10"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="9"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="8"/>
-    <tableColumn id="16" name="Type" dataDxfId="7"/>
+    <tableColumn id="1" name="Drug" dataDxfId="15"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
+    <tableColumn id="17" name="Joy" dataDxfId="12"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
+    <tableColumn id="16" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3703,7 +3703,7 @@
   <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>67</v>
@@ -5060,31 +5060,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C41">
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E41">
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q41">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D41 D4:D8">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -3703,7 +3703,7 @@
   <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4101,7 +4101,7 @@
         <v>136</v>
       </c>
       <c r="C10" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>116</v>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -3703,7 +3703,7 @@
   <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3931,7 +3931,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M6" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="N6" s="5">
         <v>0</v>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -3703,7 +3703,7 @@
   <dimension ref="B1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4169,7 +4169,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="J11" s="8">
         <v>0.75</v>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Core Mod" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
   <si>
     <t>Drug</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>1.0 Days</t>
-  </si>
-  <si>
-    <t>0.1 Days</t>
   </si>
   <si>
     <t>3.0 Days</t>
@@ -335,57 +332,6 @@
   </si>
   <si>
     <t>Work to Make - In Ticks (60 per second)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rest +20%
-Consciousness +10%
-Sight +20%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Comfy Temperature Max -7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Negotiation Ability +10%
-Social Impact +6%  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rest +20%
-Psyfocus (Royalty DLC) +25%
-Rest Fall Factor x60%
-Hunger Rate Factor Offset -40%
-Mental Break Threshold -20%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Social Impact -50%
-Global Learning Factor -75%</t>
-    </r>
   </si>
   <si>
     <r>
@@ -764,6 +710,75 @@
   </si>
   <si>
     <t>Oncovisis (Biotech)</t>
+  </si>
+  <si>
+    <t>Luckydip</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Variable (x10 Modifer)</t>
+  </si>
+  <si>
+    <t>Randomly applies any drug hediff forcing any duration to be 10x longer</t>
+  </si>
+  <si>
+    <t>Below hasn't been added yet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rest +20%
+Consciousness +10%
+Sight +20%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comfy Temperature Max -7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Negotiation Ability +10%
+Social Impact +10%  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rest +20%
+Psyfocus (Royalty DLC) +25%
+Rest Fall Factor x40%
+Hunger Rate Factor Offset -60%
+Mental Break Threshold -25%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Social Impact -35%
+Global Learning Factor -50%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -823,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -874,6 +889,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q42" totalsRowShown="0" dataDxfId="40">
-  <autoFilter ref="B3:Q42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q44" totalsRowShown="0" dataDxfId="40">
+  <autoFilter ref="B3:Q44">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
     <filterColumn colId="14"/>
@@ -1434,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q52"/>
+  <dimension ref="B1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1463,21 +1490,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -1588,7 +1615,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="E5" s="4">
         <v>0.7</v>
@@ -1638,7 +1665,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1738,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1838,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1888,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1938,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1953,7 +1980,7 @@
         <v>1400</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -1988,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -2038,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2088,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2138,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2153,7 +2180,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J16" s="8">
         <v>0.2</v>
@@ -2188,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2238,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2253,7 +2280,7 @@
         <v>67</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="8">
         <v>0.5</v>
@@ -2288,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2303,7 +2330,7 @@
         <v>600</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J19" s="8">
         <v>1</v>
@@ -2338,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2353,7 +2380,7 @@
         <v>600</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -2388,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="E21" s="4">
         <v>0.5</v>
@@ -2438,7 +2465,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E22" s="4">
         <v>0.7</v>
@@ -2474,7 +2501,7 @@
         <v>72</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>13</v>
@@ -2488,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E23" s="4">
         <v>0.1</v>
@@ -2524,7 +2551,7 @@
         <v>73</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>13</v>
@@ -2538,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4">
         <v>0.1</v>
@@ -2553,7 +2580,7 @@
         <v>350</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="8">
         <v>0.75</v>
@@ -2574,7 +2601,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>13</v>
@@ -2588,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E25" s="4">
         <v>0.2</v>
@@ -2624,7 +2651,7 @@
         <v>74</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>13</v>
@@ -2638,7 +2665,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -2674,7 +2701,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>19</v>
@@ -2688,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E27" s="4">
         <v>0.5</v>
@@ -2724,7 +2751,7 @@
         <v>76</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>19</v>
@@ -2738,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E28" s="4">
         <v>0.7</v>
@@ -2774,7 +2801,7 @@
         <v>75</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>19</v>
@@ -2788,7 +2815,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4">
         <v>0.85</v>
@@ -2824,7 +2851,7 @@
         <v>77</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>19</v>
@@ -2838,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2888,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2988,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -3038,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4">
         <v>0.6</v>
@@ -3053,7 +3080,7 @@
         <v>69</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" s="8">
         <v>0.5</v>
@@ -3077,7 +3104,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3088,7 +3115,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="4">
         <v>0.3</v>
@@ -3103,7 +3130,7 @@
         <v>400</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J35" s="8">
         <v>0.5</v>
@@ -3127,7 +3154,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="60">
@@ -3138,7 +3165,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E36" s="4">
         <v>0.85</v>
@@ -3174,7 +3201,7 @@
         <v>78</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>19</v>
@@ -3188,7 +3215,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -3224,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>19</v>
@@ -3238,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3288,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -3338,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -3374,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>13</v>
@@ -3388,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -3424,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>13</v>
@@ -3438,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3481,40 +3508,74 @@
       </c>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="B43" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44" spans="2:17" ht="45">
+      <c r="B44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>27</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J44" s="21">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="12">
+        <v>0</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="45" spans="2:17">
       <c r="B45" s="2"/>
@@ -3643,25 +3704,43 @@
       <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C42">
+  <conditionalFormatting sqref="C4:C44">
     <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3669,12 +3748,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E42">
+  <conditionalFormatting sqref="E4:E44">
     <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q42">
+  <conditionalFormatting sqref="Q4:Q44">
     <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
@@ -3685,7 +3764,7 @@
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D42">
+  <conditionalFormatting sqref="D4:D44">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
@@ -3702,7 +3781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3729,21 +3808,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -3798,13 +3877,13 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3819,7 +3898,7 @@
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J4" s="8">
         <v>0.75</v>
@@ -3848,13 +3927,13 @@
     </row>
     <row r="5" spans="2:17" s="2" customFormat="1">
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3869,7 +3948,7 @@
         <v>600</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J5" s="8">
         <v>0.75</v>
@@ -3898,13 +3977,13 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -3919,7 +3998,7 @@
         <v>400</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J6" s="8">
         <v>0.75</v>
@@ -3940,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>13</v>
@@ -3948,13 +4027,13 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="4">
         <v>0.5</v>
@@ -3990,21 +4069,21 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30">
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -4019,7 +4098,7 @@
         <v>500</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8">
         <v>1</v>
@@ -4048,13 +4127,13 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4069,7 +4148,7 @@
         <v>67</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
@@ -4098,13 +4177,13 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2">
         <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4">
         <v>0.75</v>
@@ -4119,7 +4198,7 @@
         <v>1000</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J10" s="8">
         <v>0.5</v>
@@ -4137,10 +4216,10 @@
         <v>0.01</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>19</v>
@@ -4148,13 +4227,13 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4169,7 +4248,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J11" s="8">
         <v>0.75</v>
@@ -4187,10 +4266,10 @@
         <v>0.02</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>19</v>
@@ -4198,13 +4277,13 @@
     </row>
     <row r="12" spans="2:17" ht="30">
       <c r="B12" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2">
         <v>-3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4237,10 +4316,10 @@
         <v>0.04</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>19</v>
@@ -4248,13 +4327,13 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4269,7 +4348,7 @@
         <v>400</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -4298,13 +4377,13 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4319,7 +4398,7 @@
         <v>750</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -4348,13 +4427,13 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4369,7 +4448,7 @@
         <v>800</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="8">
         <v>0.5</v>
@@ -4387,10 +4466,10 @@
         <v>0.01</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>13</v>
@@ -4398,13 +4477,13 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4425,7 +4504,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:17">

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>Drug</t>
   </si>
@@ -266,9 +266,6 @@
     <t>7.6 Days</t>
   </si>
   <si>
-    <t>1.3 Days</t>
-  </si>
-  <si>
     <t>0.3 Days</t>
   </si>
   <si>
@@ -294,10 +291,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rest Fall Factor x50% </t>
-  </si>
-  <si>
-    <t>Global Learning Factor +30%
-Research Speed +30%</t>
   </si>
   <si>
     <t xml:space="preserve">Pain x20%
@@ -721,15 +714,6 @@
     <t>Var</t>
   </si>
   <si>
-    <t>Variable (x10 Modifer)</t>
-  </si>
-  <si>
-    <t>Randomly applies any drug hediff forcing any duration to be 10x longer</t>
-  </si>
-  <si>
-    <t>Below hasn't been added yet</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Rest +20%
 Consciousness +10%
@@ -779,6 +763,23 @@
       <t>Social Impact -35%
 Global Learning Factor -50%</t>
     </r>
+  </si>
+  <si>
+    <t>1.6 Days</t>
+  </si>
+  <si>
+    <t>0.8 Days</t>
+  </si>
+  <si>
+    <t>Global Learning Factor +30%
+Research Speed +30%
+Reading Speed +30%
+Hacking Speed +30%
+Learning Factor +30% (Biotech)
+MechinatorSkills +20% (Biotech)</t>
+  </si>
+  <si>
+    <t>Randomly applies up to 3 drug hediffs. (always 1st, 50% chance for 2nd, 20% chance for 3rd).</t>
   </si>
 </sst>
 </file>
@@ -838,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -898,9 +899,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,8 +1120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q44" totalsRowShown="0" dataDxfId="40">
-  <autoFilter ref="B3:Q44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q43" totalsRowShown="0" dataDxfId="40">
+  <autoFilter ref="B3:Q43">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
     <filterColumn colId="14"/>
@@ -1461,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q53"/>
+  <dimension ref="B1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1490,21 +1488,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -1580,7 +1578,7 @@
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="J4" s="8">
         <v>1</v>
@@ -1615,7 +1613,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="4">
         <v>0.7</v>
@@ -1665,7 +1663,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1765,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1865,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1915,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1930,13 +1928,13 @@
         <v>400</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="J11" s="8">
         <v>0.75</v>
       </c>
       <c r="K11" s="5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L11" s="7">
         <v>0.01</v>
@@ -1965,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1980,7 +1978,7 @@
         <v>1400</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="8">
         <v>1</v>
@@ -2007,7 +2005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="30">
+    <row r="13" spans="2:17" ht="90">
       <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -2030,7 +2028,7 @@
         <v>600</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J13" s="8">
         <v>0.75</v>
@@ -2065,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -2115,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -2165,7 +2163,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -2180,7 +2178,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J16" s="8">
         <v>0.2</v>
@@ -2215,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -2265,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -2315,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -2365,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -2380,7 +2378,7 @@
         <v>600</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="J20" s="8">
         <v>1</v>
@@ -2415,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E21" s="4">
         <v>0.5</v>
@@ -2465,7 +2463,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4">
         <v>0.7</v>
@@ -2501,7 +2499,7 @@
         <v>72</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>13</v>
@@ -2515,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="4">
         <v>0.1</v>
@@ -2551,7 +2549,7 @@
         <v>73</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>13</v>
@@ -2565,7 +2563,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E24" s="4">
         <v>0.1</v>
@@ -2580,7 +2578,7 @@
         <v>350</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="8">
         <v>0.75</v>
@@ -2601,7 +2599,7 @@
         <v>72</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>13</v>
@@ -2615,7 +2613,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E25" s="4">
         <v>0.2</v>
@@ -2651,7 +2649,7 @@
         <v>74</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>13</v>
@@ -2665,7 +2663,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="4">
         <v>0.7</v>
@@ -2701,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>19</v>
@@ -2715,7 +2713,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" s="4">
         <v>0.5</v>
@@ -2751,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>19</v>
@@ -2765,7 +2763,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="4">
         <v>0.7</v>
@@ -2801,7 +2799,7 @@
         <v>75</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>19</v>
@@ -2815,7 +2813,7 @@
         <v>35</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4">
         <v>0.85</v>
@@ -2851,7 +2849,7 @@
         <v>77</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>19</v>
@@ -2865,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -2880,7 +2878,7 @@
         <v>450</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="J30" s="8">
         <v>1</v>
@@ -2915,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -2980,7 +2978,7 @@
         <v>600</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="J32" s="8">
         <v>1</v>
@@ -3015,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -3039,10 +3037,10 @@
         <v>0.1</v>
       </c>
       <c r="L33" s="7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N33" s="5">
         <v>0</v>
@@ -3065,7 +3063,7 @@
         <v>12</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34" s="4">
         <v>0.6</v>
@@ -3080,7 +3078,7 @@
         <v>69</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="J34" s="8">
         <v>0.5</v>
@@ -3104,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:17">
@@ -3115,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="4">
         <v>0.3</v>
@@ -3130,7 +3128,7 @@
         <v>400</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J35" s="8">
         <v>0.5</v>
@@ -3154,7 +3152,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="60">
@@ -3165,7 +3163,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E36" s="4">
         <v>0.85</v>
@@ -3201,7 +3199,7 @@
         <v>78</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>19</v>
@@ -3215,7 +3213,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -3251,7 +3249,7 @@
         <v>78</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>19</v>
@@ -3265,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -3315,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -3365,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -3401,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>13</v>
@@ -3415,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -3451,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>13</v>
@@ -3465,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -3507,75 +3505,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="2:17" ht="45">
-      <c r="B44" s="9" t="s">
+    <row r="43" spans="2:17" ht="45">
+      <c r="B43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="12">
-        <v>0</v>
-      </c>
-      <c r="G44" s="9">
-        <v>27</v>
-      </c>
-      <c r="H44" s="9" t="s">
+      <c r="F43" s="12">
+        <v>0</v>
+      </c>
+      <c r="G43" s="9">
+        <v>60</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="J44" s="21">
+      <c r="I43" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" s="21">
         <v>1</v>
       </c>
-      <c r="K44" s="12">
-        <v>0</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N44" s="12">
-        <v>0</v>
-      </c>
-      <c r="O44" s="10">
-        <v>0</v>
-      </c>
-      <c r="P44" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="K43" s="12">
+        <v>0</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
     </row>
     <row r="45" spans="2:17">
       <c r="B45" s="2"/>
@@ -3704,43 +3700,25 @@
       <c r="Q51" s="6"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C44">
+  <conditionalFormatting sqref="C4:C43">
     <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3748,12 +3726,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E44">
+  <conditionalFormatting sqref="E4:E43">
     <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q44">
+  <conditionalFormatting sqref="Q4:Q43">
     <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
@@ -3764,7 +3742,7 @@
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D44">
+  <conditionalFormatting sqref="D4:D43">
     <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
@@ -3808,21 +3786,21 @@
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:17">
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:17">
@@ -3877,13 +3855,13 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -3898,7 +3876,7 @@
         <v>600</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J4" s="8">
         <v>0.75</v>
@@ -3927,13 +3905,13 @@
     </row>
     <row r="5" spans="2:17" s="2" customFormat="1">
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3948,7 +3926,7 @@
         <v>600</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J5" s="8">
         <v>0.75</v>
@@ -3977,13 +3955,13 @@
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -3998,7 +3976,7 @@
         <v>400</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J6" s="8">
         <v>0.75</v>
@@ -4019,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>13</v>
@@ -4027,13 +4005,13 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="2">
         <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" s="4">
         <v>0.5</v>
@@ -4069,21 +4047,21 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="30">
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -4127,13 +4105,13 @@
     </row>
     <row r="9" spans="2:17">
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -4148,7 +4126,7 @@
         <v>67</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="8">
         <v>1</v>
@@ -4177,13 +4155,13 @@
     </row>
     <row r="10" spans="2:17">
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="2">
         <v>24</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" s="4">
         <v>0.75</v>
@@ -4198,7 +4176,7 @@
         <v>1000</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10" s="8">
         <v>0.5</v>
@@ -4216,10 +4194,10 @@
         <v>0.01</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>19</v>
@@ -4227,13 +4205,13 @@
     </row>
     <row r="11" spans="2:17">
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -4248,7 +4226,7 @@
         <v>1000</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J11" s="8">
         <v>0.75</v>
@@ -4266,10 +4244,10 @@
         <v>0.02</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>19</v>
@@ -4277,13 +4255,13 @@
     </row>
     <row r="12" spans="2:17" ht="30">
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2">
         <v>-3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -4316,10 +4294,10 @@
         <v>0.04</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="6" t="s">
         <v>19</v>
@@ -4327,13 +4305,13 @@
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -4348,7 +4326,7 @@
         <v>400</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J13" s="8">
         <v>1</v>
@@ -4377,13 +4355,13 @@
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -4398,7 +4376,7 @@
         <v>750</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -4427,13 +4405,13 @@
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -4466,10 +4444,10 @@
         <v>0.01</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>13</v>
@@ -4477,13 +4455,13 @@
     </row>
     <row r="16" spans="2:17">
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -4504,7 +4482,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:17">

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -1462,7 +1462,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resources/SleepyPharmaDrugEffects.xlsx
+++ b/Resources/SleepyPharmaDrugEffects.xlsx
@@ -904,7 +904,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF69D8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFE0A9A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E6A2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1120,55 +1192,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q43" totalsRowShown="0" dataDxfId="40">
-  <autoFilter ref="B3:Q43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:Q44" totalsRowShown="0" dataDxfId="51">
+  <autoFilter ref="B3:Q44">
     <filterColumn colId="3"/>
     <filterColumn colId="8"/>
     <filterColumn colId="14"/>
     <filterColumn colId="15"/>
   </autoFilter>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="39"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="38"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="37"/>
-    <tableColumn id="17" name="Joy" dataDxfId="36"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="35"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="34"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="33"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="32"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="31"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="30"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="29"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="28"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="27"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="26"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="25"/>
-    <tableColumn id="16" name="Type" dataDxfId="24"/>
+    <tableColumn id="1" name="Drug" dataDxfId="50"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="49"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="48"/>
+    <tableColumn id="17" name="Joy" dataDxfId="47"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="46"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="45"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="44"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="43"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="42"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="41"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="40"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="39"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="38"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="37"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="36"/>
+    <tableColumn id="16" name="Type" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q41" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:Q41" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="B3:Q41"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Drug" dataDxfId="15"/>
-    <tableColumn id="14" name="Mood Bonus" dataDxfId="14"/>
-    <tableColumn id="13" name="Other Drug Effects" dataDxfId="13"/>
-    <tableColumn id="17" name="Joy" dataDxfId="12"/>
-    <tableColumn id="2" name="Addictiveness" dataDxfId="11"/>
-    <tableColumn id="3" name="Market Value" dataDxfId="10"/>
-    <tableColumn id="4" name="Work to Make" dataDxfId="9"/>
-    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="8"/>
-    <tableColumn id="18" name="Initial Severity" dataDxfId="7"/>
-    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="6"/>
-    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="5"/>
-    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="4"/>
-    <tableColumn id="10" name="OD Chance" dataDxfId="3"/>
-    <tableColumn id="11" name="OD Offset" dataDxfId="2"/>
-    <tableColumn id="19" name="Drug Class" dataDxfId="1"/>
-    <tableColumn id="16" name="Type" dataDxfId="0"/>
+    <tableColumn id="1" name="Drug" dataDxfId="26"/>
+    <tableColumn id="14" name="Mood Bonus" dataDxfId="25"/>
+    <tableColumn id="13" name="Other Drug Effects" dataDxfId="24"/>
+    <tableColumn id="17" name="Joy" dataDxfId="23"/>
+    <tableColumn id="2" name="Addictiveness" dataDxfId="22"/>
+    <tableColumn id="3" name="Market Value" dataDxfId="21"/>
+    <tableColumn id="4" name="Work to Make" dataDxfId="20"/>
+    <tableColumn id="5" name="Duration (Per Dose)" dataDxfId="19"/>
+    <tableColumn id="18" name="Initial Severity" dataDxfId="18"/>
+    <tableColumn id="6" name="Tolerance Gain (Per Dose)" dataDxfId="17"/>
+    <tableColumn id="7" name="Tolerance Fall Rate" dataDxfId="16"/>
+    <tableColumn id="9" name="Addiction Min Tol" dataDxfId="15"/>
+    <tableColumn id="10" name="OD Chance" dataDxfId="14"/>
+    <tableColumn id="11" name="OD Offset" dataDxfId="13"/>
+    <tableColumn id="19" name="Drug Class" dataDxfId="12"/>
+    <tableColumn id="16" name="Type" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1462,7 +1534,7 @@
   <dimension ref="B1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+      <selection activeCell="B44" sqref="B44:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3556,18 +3628,18 @@
       </c>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="J44" s="8"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -3718,32 +3790,32 @@
       <c r="Q52" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C43">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="C4:C44">
+    <cfRule type="cellIs" dxfId="58" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E43">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+  <conditionalFormatting sqref="E4:E44">
+    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q43">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q4:Q44">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D43">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+  <conditionalFormatting sqref="D4:D44">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5117,31 +5189,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:C41">
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E41">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q41">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
       <formula>"Social Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="8" operator="equal">
       <formula>"Hard Drug"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"Medical"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D41 D4:D8">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="6" operator="equal">
       <formula>"No Other Effects"</formula>
     </cfRule>
   </conditionalFormatting>
